--- a/data/controle.xlsx
+++ b/data/controle.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisaraujo/Documents/GitHub/ranking-lp1-2023.1/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5149E87-D5CB-F34C-9E58-6F1D7EFD7429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>SEMANA</t>
   </si>
@@ -71,19 +90,25 @@
   </si>
   <si>
     <t>Conselheiro (Prova 2)</t>
+  </si>
+  <si>
+    <t>Lista 7</t>
+  </si>
+  <si>
+    <t>Lista 8</t>
+  </si>
+  <si>
+    <t>Lista 9</t>
+  </si>
+  <si>
+    <t>Lista 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,162 +120,25 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,198 +147,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -473,312 +175,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1036,25 +454,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="12.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +507,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1111,14 +529,22 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1140,14 +566,22 @@
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1161,14 +595,14 @@
         <v>11</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1180,14 +614,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1199,14 +633,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1218,14 +652,14 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1247,14 +681,22 @@
       <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1264,14 +706,14 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1288,7 +730,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1303,7 +745,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1318,7 +760,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1333,7 +775,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1348,7 +790,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1363,7 +805,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1378,7 +820,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1393,7 +835,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1408,7 +850,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1425,6 +867,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>